--- a/resources/2nd Session/07 Hands-on/Activities/QA.xlsx
+++ b/resources/2nd Session/07 Hands-on/Activities/QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjafiliposka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjafiliposka/Documents/GitHub/CLARIN-Training/resources/2nd Session/07 Hands-on/Activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F27D24-2713-654C-AE72-498B61CD845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0227B700-E86B-6D49-9D8A-7F3462702F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{A4E80C3F-124C-5148-8CC5-8425F33F2C76}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A4E80C3F-124C-5148-8CC5-8425F33F2C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic QA checklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ELSI QA checklist" sheetId="3" r:id="rId3"/>
     <sheet name="answers" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1247,7 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1265,27 +1265,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1295,34 +1281,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1340,6 +1307,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1678,426 +1657,425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF4D692-829F-3A48-B564-B96B7BA690DB}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="2" max="2" width="78.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11"/>
-    <col min="4" max="4" width="46.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="78.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="46.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D2,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D3,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D4,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D5,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D6,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>0</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D7,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D8,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>0</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D9,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>0</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D10,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D11,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>0</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D12,answers!$A$5:$B$7,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D13,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>0</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D14,answers!$A$9:$B$11,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>0</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D15,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>0</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D16,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D17,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>0</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D18,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D19,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>0</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D20,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D21,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <f>A2*C2+A4*C4+A5*C5+A8*C8+A11*C11+A13*C13+A17*C17+A19*C19+A21*C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="10">
         <f>C22/9</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <f>IF(C22=9,SUM(C2:C21),C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="10">
         <f>C23/22</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2157,18 +2135,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F382346-462B-9645-9D52-DCB5FA7FB1B0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="81.6640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.1640625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="148.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="148.1640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2178,16 +2156,16 @@
       <c r="B1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2198,17 +2176,17 @@
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E2,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2219,17 +2197,17 @@
       <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E3,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2237,20 +2215,20 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E4,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2261,17 +2239,17 @@
       <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E5,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2282,139 +2260,139 @@
       <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E6,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E7,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>0</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="24">
+        <v>0</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E8,answers!$A$36:$B$37,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="11">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E9,answers!$A$38:$B$39,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="11">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E10,answers!$A$40:$B$41,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="11">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E11,answers!$A$42:$B$43,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="11">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E12,answers!$A$44:$B$45,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="11">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E13,answers!$A$46:$B$47,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="11">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E14,answers!$A$48:$B$49,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2423,17 +2401,17 @@
       <c r="B15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E15,answers!$A$13:$B$15,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2444,17 +2422,17 @@
       <c r="B16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E16,answers!$A$17:$B$19,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2465,38 +2443,38 @@
       <c r="B17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E17,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="3">
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E18,answers!$A$63:$B$65,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2507,38 +2485,38 @@
       <c r="B19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E19,answers!$A$21:$B$23,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+      <c r="A20" s="3">
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E20,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2549,236 +2527,235 @@
       <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E21,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="3">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E22,answers!$A$25:$B$27,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="A23" s="3">
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E23,answers!$A$29:$B$33,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>0</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E24,answers!$A$52:$B$53,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="11">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E25,answers!$A$54:$B$55,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="11">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E26,answers!$A$56:$B$57,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="11">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E27,answers!$A$58:$B$59,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="11">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E28,answers!$A$60:$B$61,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+      <c r="A29" s="3">
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="3">
         <f>_xlfn.IFNA(VLOOKUP(E29,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="27" t="s">
+      <c r="E29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="3">
         <f>SUM(A3*D3+A5*D5+A6*D6+A15*D15+A16*D16+A17*D17+A19*D19+A21*D21)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="33">
-        <f>D30/11</f>
+      <c r="E30" s="20">
+        <f>D30/8</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D31" s="3">
         <f>SUM(D16,D19,D22)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="20">
         <f>D31/6</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D32" s="3">
         <f>SUM(D17,D20:D21,D23)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="20">
         <f>D32/7</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D3:D4,D15)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="20">
         <f>D33/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D34" s="3">
         <f>SUM(D5:D14,D18,D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="20">
         <f>D34/17</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="3">
         <f>IF(AND(SUM(A3*D3+A5*D5+A6*D6+A15*D15+A16*D16+A17*D17+A19*D19+A21*D21)&gt;7,D15&gt;0,D16&gt;0,D19&gt;0),SUM(D2:D29),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="20">
         <f>D35/36</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="F24:F28"/>
@@ -2966,11 +2943,11 @@
       <c r="B2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D2,answers!$A$71:$B$73,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2984,11 +2961,11 @@
       <c r="B3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D3,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
@@ -3002,11 +2979,11 @@
       <c r="B4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D4,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
@@ -3020,11 +2997,11 @@
       <c r="B5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D5,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
@@ -3038,11 +3015,11 @@
       <c r="B6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D6,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
@@ -3056,11 +3033,11 @@
       <c r="B7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D7,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3074,11 +3051,11 @@
       <c r="B8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D8,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3089,11 +3066,11 @@
       <c r="B9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D9,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
@@ -3107,11 +3084,11 @@
       <c r="B10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D10,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3122,11 +3099,11 @@
       <c r="B11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D11,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
@@ -3140,11 +3117,11 @@
       <c r="B12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D12,answers!$A$67:$B$69,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3155,11 +3132,11 @@
       <c r="B13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D13,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3170,11 +3147,11 @@
       <c r="B14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D14,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3185,14 +3162,14 @@
       <c r="B15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D15,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3203,14 +3180,14 @@
       <c r="B16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D16,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="30"/>
+      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -3219,14 +3196,14 @@
       <c r="B17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D17,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="30"/>
+      <c r="D17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -3235,14 +3212,14 @@
       <c r="B18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D18,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="30"/>
+      <c r="D18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -3251,14 +3228,14 @@
       <c r="B19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D19,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3269,14 +3246,14 @@
       <c r="B20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D20,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="24"/>
+      <c r="D20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -3285,11 +3262,11 @@
       <c r="B21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D21,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3300,11 +3277,11 @@
       <c r="B22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D22,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E22" t="s">
@@ -3318,11 +3295,11 @@
       <c r="B23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D23,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3333,11 +3310,11 @@
       <c r="B24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D24,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3348,11 +3325,11 @@
       <c r="B25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D25,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E25" t="s">
@@ -3366,11 +3343,11 @@
       <c r="B26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="3">
         <f>_xlfn.IFNA(VLOOKUP(D26,answers!$A$2:$B$3,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3378,27 +3355,27 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <f>A2*C2+A6*C6+A11*C11+A12*C12+A18*C18+A23*C23+A24*C24</f>
         <v>0</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="10">
         <f>C27/9</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <f>IF(AND(C27&gt;7,C12&gt;0),SUM(C2:C26),0)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="10">
         <f>C28/27</f>
         <v>0</v>
       </c>
@@ -3575,7 +3552,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -3602,7 +3579,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3629,10 +3606,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" t="s">
         <v>110</v>
       </c>
       <c r="B29">
@@ -3640,7 +3617,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B30">
@@ -3648,7 +3625,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B31">
@@ -3656,7 +3633,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B32">
@@ -3664,7 +3641,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B33">
@@ -3672,7 +3649,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" t="s">
         <v>121</v>
       </c>
       <c r="B36">
@@ -3680,7 +3657,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" t="s">
         <v>122</v>
       </c>
       <c r="B37">
@@ -3688,7 +3665,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" t="s">
         <v>115</v>
       </c>
       <c r="B38">
@@ -3696,7 +3673,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" t="s">
         <v>122</v>
       </c>
       <c r="B39">
@@ -3704,7 +3681,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
       <c r="B40">
@@ -3712,7 +3689,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" t="s">
         <v>122</v>
       </c>
       <c r="B41">
@@ -3720,7 +3697,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" t="s">
         <v>117</v>
       </c>
       <c r="B42">
@@ -3728,7 +3705,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" t="s">
         <v>122</v>
       </c>
       <c r="B43">
@@ -3736,7 +3713,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" t="s">
         <v>118</v>
       </c>
       <c r="B44">
@@ -3744,7 +3721,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" t="s">
         <v>122</v>
       </c>
       <c r="B45">
@@ -3752,7 +3729,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" t="s">
         <v>119</v>
       </c>
       <c r="B46">
@@ -3760,7 +3737,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" t="s">
         <v>122</v>
       </c>
       <c r="B47">
@@ -3768,7 +3745,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" t="s">
         <v>120</v>
       </c>
       <c r="B48">
@@ -3776,7 +3753,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" t="s">
         <v>122</v>
       </c>
       <c r="B49">
@@ -3784,7 +3761,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" t="s">
         <v>123</v>
       </c>
       <c r="B52">
@@ -3792,7 +3769,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
+      <c r="A53" t="s">
         <v>122</v>
       </c>
       <c r="B53">
@@ -3800,7 +3777,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
+      <c r="A54" t="s">
         <v>124</v>
       </c>
       <c r="B54">
@@ -3808,7 +3785,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
+      <c r="A55" t="s">
         <v>122</v>
       </c>
       <c r="B55">
@@ -3816,7 +3793,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="A56" t="s">
         <v>125</v>
       </c>
       <c r="B56">
@@ -3824,7 +3801,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" t="s">
         <v>122</v>
       </c>
       <c r="B57">
@@ -3832,7 +3809,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" t="s">
         <v>126</v>
       </c>
       <c r="B58">
@@ -3840,7 +3817,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" t="s">
         <v>122</v>
       </c>
       <c r="B59">
@@ -3848,7 +3825,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" t="s">
         <v>127</v>
       </c>
       <c r="B60">
@@ -3856,7 +3833,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" t="s">
         <v>122</v>
       </c>
       <c r="B61">
@@ -3864,7 +3841,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" t="s">
         <v>129</v>
       </c>
       <c r="B63">
@@ -3872,7 +3849,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="22" t="s">
+      <c r="A64" t="s">
         <v>128</v>
       </c>
       <c r="B64">
@@ -3880,7 +3857,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
+      <c r="A65" t="s">
         <v>130</v>
       </c>
       <c r="B65">

--- a/resources/2nd Session/07 Hands-on/Activities/QA.xlsx
+++ b/resources/2nd Session/07 Hands-on/Activities/QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjafiliposka/Documents/GitHub/CLARIN-Training/resources/2nd Session/07 Hands-on/Activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0227B700-E86B-6D49-9D8A-7F3462702F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6620AAB-5E59-F44A-A272-4BAB082567E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A4E80C3F-124C-5148-8CC5-8425F33F2C76}"/>
   </bookViews>
@@ -2135,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F382346-462B-9645-9D52-DCB5FA7FB1B0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="20">
-        <f>D30/8</f>
+        <f>D30/11</f>
         <v>0</v>
       </c>
     </row>

--- a/resources/2nd Session/07 Hands-on/Activities/QA.xlsx
+++ b/resources/2nd Session/07 Hands-on/Activities/QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjafiliposka/Documents/GitHub/CLARIN-Training/resources/2nd Session/07 Hands-on/Activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6620AAB-5E59-F44A-A272-4BAB082567E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4CD97-CF2E-5F43-B7BE-BB12E0FD610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A4E80C3F-124C-5148-8CC5-8425F33F2C76}"/>
   </bookViews>
@@ -2756,6 +2756,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="F24:F28"/>
